--- a/Untitled Folder/lifeExpectancy.xlsx
+++ b/Untitled Folder/lifeExpectancy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\umn\EE4389w\Untitled Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/EE4389w/Untitled Folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19E483F-5BAA-46C4-9DAD-E5012EAD4808}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B85DA95-FF34-C544-875A-E401EADDFB4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2120" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
-    <t>STATE NAME</t>
-  </si>
-  <si>
     <t>MURDER</t>
   </si>
   <si>
@@ -193,6 +190,10 @@
   </si>
   <si>
     <t>LIFE_EXPECT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE_NAME</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,41 +549,41 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>69.099999999999994</v>
@@ -600,9 +601,9 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>69.3</v>
@@ -620,9 +621,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
         <v>70.599999999999994</v>
@@ -640,9 +641,9 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>70.7</v>
@@ -660,9 +661,9 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4">
         <v>71.7</v>
@@ -680,9 +681,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
         <v>72.099999999999994</v>
@@ -700,9 +701,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4">
         <v>72.5</v>
@@ -720,9 +721,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4">
         <v>70.099999999999994</v>
@@ -740,9 +741,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4">
         <v>70.7</v>
@@ -760,9 +761,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4">
         <v>68.5</v>
@@ -780,9 +781,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4">
         <v>73.599999999999994</v>
@@ -800,9 +801,9 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4">
         <v>71.900000000000006</v>
@@ -820,9 +821,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4">
         <v>70.099999999999994</v>
@@ -840,9 +841,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4">
         <v>70.900000000000006</v>
@@ -860,9 +861,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4">
         <v>72.599999999999994</v>
@@ -880,9 +881,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4">
         <v>72.599999999999994</v>
@@ -900,9 +901,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="16">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4">
         <v>70.099999999999994</v>
@@ -920,9 +921,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4">
         <v>68.8</v>
@@ -940,9 +941,9 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="4">
         <v>70.400000000000006</v>
@@ -960,9 +961,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4">
         <v>70.2</v>
@@ -980,9 +981,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="16">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4">
         <v>71.8</v>
@@ -1000,9 +1001,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4">
         <v>70.599999999999994</v>
@@ -1020,9 +1021,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4">
         <v>73</v>
@@ -1040,9 +1041,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="16">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="4">
         <v>68.099999999999994</v>
@@ -1060,9 +1061,9 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="4">
         <v>70.7</v>
@@ -1080,9 +1081,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="4">
         <v>70.599999999999994</v>
@@ -1100,9 +1101,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="16">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="4">
         <v>72.599999999999994</v>
@@ -1120,9 +1121,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="16">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="4">
         <v>69</v>
@@ -1140,9 +1141,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="16">
       <c r="A30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="4">
         <v>71.2</v>
@@ -1160,9 +1161,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="16">
       <c r="A31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="4">
         <v>70.900000000000006</v>
@@ -1180,9 +1181,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="16">
       <c r="A32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="4">
         <v>70.3</v>
@@ -1200,9 +1201,9 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="16">
       <c r="A33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="4">
         <v>70.599999999999994</v>
@@ -1220,9 +1221,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="16">
       <c r="A34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4">
         <v>69.2</v>
@@ -1240,9 +1241,9 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="16">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="4">
         <v>72.8</v>
@@ -1260,9 +1261,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="16">
       <c r="A36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4">
         <v>70.8</v>
@@ -1280,9 +1281,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="16">
       <c r="A37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="4">
         <v>71.400000000000006</v>
@@ -1300,9 +1301,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="16">
       <c r="A38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="4">
         <v>72.099999999999994</v>
@@ -1320,9 +1321,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="16">
       <c r="A39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="4">
         <v>70.400000000000006</v>
@@ -1340,9 +1341,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="16">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="4">
         <v>71.900000000000006</v>
@@ -1360,9 +1361,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="16">
       <c r="A41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4">
         <v>68</v>
@@ -1380,9 +1381,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="16">
       <c r="A42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4">
         <v>72.099999999999994</v>
@@ -1400,9 +1401,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="16">
       <c r="A43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="4">
         <v>70.099999999999994</v>
@@ -1420,9 +1421,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="16">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="4">
         <v>70.900000000000006</v>
@@ -1440,9 +1441,9 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="16">
       <c r="A45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="4">
         <v>72.900000000000006</v>
@@ -1460,9 +1461,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="16">
       <c r="A46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="4">
         <v>71.599999999999994</v>
@@ -1480,9 +1481,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="16">
       <c r="A47" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="4">
         <v>70.099999999999994</v>
@@ -1500,9 +1501,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="16">
       <c r="A48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="4">
         <v>71.7</v>
@@ -1520,9 +1521,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="16">
       <c r="A49" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="4">
         <v>69.5</v>
@@ -1540,9 +1541,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="16">
       <c r="A50" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="4">
         <v>72.5</v>
@@ -1560,9 +1561,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="16">
       <c r="A51" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="4">
         <v>70.3</v>
